--- a/Translations/en-nl-FoodNinja-ContentThemeList.xlsx
+++ b/Translations/en-nl-FoodNinja-ContentThemeList.xlsx
@@ -561,12 +561,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Familiarisation with the food group of fruits and vegetables. Complexity of task escalates with advancing level: at the beginning the focus is on the fruits and the vegetables alone, then playing with their colours is introduced.</t>
+          <t>Search for the fruits and vegetables! Slice them to earn points and learn about their nutritional value and colourful palette, how many you should consume daily, and clever ways to add them in your diet.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Vertrouwen met de voedselgroep van groenten en fruit. Complexiteit van de taak escaleert met een vooruitstrevend niveau: in het begin ligt de focus op de fruit en de groenten alleen, dan wordt het spelen met hun kleuren geïntroduceerd.</t>
+          <t>Zoek naar de groenten en fruit! Snijd ze in plakjes om punten te verdienen en leer meer over hun voedingswaarde en kleurrijke palet, hoeveel je er dagelijks zou moeten consumeren en slimme manieren om ze aan je dieet toe te voegen.</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Your task is to slice only the fruits you see.</t>
+          <t>Your task is to slice the fruits!</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Uw taak is om alleen de vruchten te snijden die u ziet.</t>
+          <t>Jouw taak is om de vruchten in plakjes te snijden!</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fruits are among the foods it is recommended you consume on a daily basis. In general, 2-3 fruits per day is your ultimate goal. Selecting a fruit as a snack, at school or in the afternoon, will help you achieve your daily goal. To do so, give fruit a priority: first eat the fruit, then anything else!</t>
+          <t>Fruits are among the foods you should consume on a daily basis. In general, 2-3 fruits per day is your ultimate goal. Selecting a fruit as a snack, at school or in the afternoon, will help you achieve your daily goal. To do so, give fruit a priority: first eat the fruit, then anything else!</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fruit behoort tot het voedsel dat u dagelijks consumeert. Over het algemeen is 2-3 fruit per dag uw ultieme doel. Door een fruit te selecteren als snack, op school of in de middag, kunt u uw dagelijkse doel bereiken. Om dit te doen, geef fruit een prioriteit: eet eerst de vrucht en dan al het andere!</t>
+          <t>Fruit behoort tot de voedingsmiddelen die u dagelijks moet consumeren. Over het algemeen is 2-3 stuks fruit per dag je uiteindelijke doel. Door fruit te kiezen als tussendoortje, op school of in de middag, kun je je dagelijkse doel bereiken. Geef fruit daarom prioriteit: eet eerst het fruit en dan iets anders!</t>
         </is>
       </c>
     </row>
@@ -771,12 +771,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Your task is to slice only the veggies you see.</t>
+          <t>Your task is to slice the vegetables !</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Uw taak is om alleen de groenten te snijden die u ziet.</t>
+          <t>Jouw taak is om de groenten in plakjes te snijden!</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vegetables, like fruits, are also recommended to be consumed on a daily basis. They can be served as a salad or even as a main dish. To meet your everyday goal, accompany your main meals with veggies!</t>
+          <t>Vegetables, like fruits, should be consumed on a daily basis. They can be served as a salad or even as a main dish. To meet your everyday goal, accompany your main meals with vegetables!</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Groenten, zoals fruit, worden ook aanbevolen om dagelijks te worden geconsumeerd. Ze kunnen worden geserveerd als salade of zelfs als een hoofdgerecht. Om uw dagelijkse doel te bereiken, vergezelt u uw hoofdmaaltijden met groenten!</t>
+          <t>Groenten moeten, net als fruit, dagelijks worden geconsumeerd. Ze kunnen worden geserveerd als salade of zelfs als hoofdgerecht. Om uw dagelijkse doel te bereiken, begeleidt u uw hoofdmaaltijden met groenten!</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Your task is to slice only the F&amp;V with red colour.</t>
+          <t>Your task is to slice the fruits anf vegetables with red colour!</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Uw taak is om alleen de F&amp;V met rode kleur te snijden.</t>
+          <t>Jouw taak is om het fruit en de groenten met rode kleur te snijden!</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Familiarisation with the food group of dairy products. The complexity of the task increases with each level: first, the focus is on identifying and slicing common dairy products; then, learners move on to slicing the image that shows the recommended daily consumption of dairy products; finally, they identify and slice the image that highlights the key nutrient found in dairies, i.e. calcium.</t>
+          <t>Search for the dairy products! Slice them to earn points and learn about their key nutrients, how many you should consume daily, their serving size, and clever ways to add them in your diet..</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Vertrouwen met de voedselgroep van zuivelproducten. De complexiteit van de taak neemt toe met elk niveau: ten eerste ligt de focus op het identificeren en snijden van gemeenschappelijke zuivelproducten; Vervolgens gaan leerlingen verder met het snijden van het beeld dat de aanbevolen dagelijkse consumptie van zuivelproducten toont; Ten slotte identificeren en snijden ze het beeld dat de belangrijkste voedingsstof benadrukt die in zuivelfabrieken wordt gevonden, d.w.z. calcium.</t>
+          <t>Zoek naar de zuivelproducten! Snijd ze in plakjes om punten te verdienen en leer meer over hun belangrijkste voedingsstoffen, hoeveel u er dagelijks moet consumeren, hun portiegrootte en slimme manieren om ze aan uw dieet toe te voegen.</t>
         </is>
       </c>
     </row>
@@ -1156,12 +1156,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Your task is to slice only the dairy products you see.</t>
+          <t>Your task is to slice the dairy products!</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Uw taak is om alleen de zuivelproducten te snijden die u ziet.</t>
+          <t>Jouw taak is om de zuivelproducten in plakjes te snijden!</t>
         </is>
       </c>
     </row>
@@ -1191,12 +1191,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Make dairies a daily habit! Include them early in your day and build healthy habits that last!</t>
+          <t>Make dairy products a daily habit! Include them early in your day and build healthy habits that last!</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Maak van zuivelfabrieken een dagelijkse gewoonte! Neem ze vroeg in je tijd op en bouw gezonde gewoonten die duren!</t>
+          <t>Maak van zuivelproducten een dagelijkse gewoonte! Voeg ze vroeg op de dag toe en bouw gezonde, blijvende gewoonten op!</t>
         </is>
       </c>
     </row>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dairy products like milk, yogurt, and cheese are foods recommended for daily consumption because they provide key nutrients for your growth and development.</t>
+          <t>Dairy products like milk, yogurt, and cheese are foods you shoulod consume daily because they provide key nutrients for your growth and development.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Zuivelproducten zoals melk, yoghurt en kaas zijn voedingsmiddelen aanbevolen voor dagelijkse consumptie omdat ze belangrijke voedingsstoffen bieden voor uw groei en ontwikkeling.</t>
+          <t>Zuivelproducten zoals melk, yoghurt en kaas zijn voedingsmiddelen die u dagelijks moet consumeren, omdat ze belangrijke voedingsstoffen leveren voor uw groei en ontwikkeling.</t>
         </is>
       </c>
     </row>
@@ -1296,12 +1296,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Your task is to slice only the recommended daily consumption of dairy products you see.</t>
+          <t>Your task is to slice the recommended daily consumption of dairy products!</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Uw taak is om alleen de aanbevolen dagelijkse consumptie van zuivelproducten te snijden die u ziet.</t>
+          <t>Jouw taak is om de aanbevolen dagelijkse consumptie van zuivelproducten te verminderen!</t>
         </is>
       </c>
     </row>
@@ -1331,12 +1331,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Go with dairies every day!</t>
+          <t>Go with dairy products every day!</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Ga elke dag met zuivelfabrieken!</t>
+          <t>Ga elke dag met zuivelproducten!</t>
         </is>
       </c>
     </row>
@@ -1366,12 +1366,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>To meet the goal of 3-4 servings of dairy products per day, try including a glass of milk with breakfast, yogurt as a snack, or cheese with your lunch or dinner. Make it a habit — pair your meals or snacks with a dairy option to stay strong and healthy!</t>
+          <t>To meet the goal of 3-4 servings of dairy products per day, try including a glass of milk with breakfast, yogurt as a snack, or cheese with your lunch or dinner. Make it a habit — pair your meals or snacks with a dairy product boption to stay strong and healthy!</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Om het doel van 3-4 porties zuivelproducten per dag te bereiken, probeer dan een glas melk met ontbijt, yoghurt als een snack of kaas met je lunch of diner. Maak er een gewoonte van - combineer uw maaltijden of snacks met een zuiveloptie om sterk en gezond te blijven!</t>
+          <t>Om het doel van 3-4 porties zuivelproducten per dag te bereiken, kun je proberen een glas melk bij het ontbijt, yoghurt als tussendoortje of kaas bij je lunch of diner op te nemen. Maak er een gewoonte van: combineer uw maaltijden of snacks met een zuivelproduct om sterk en gezond te blijven!</t>
         </is>
       </c>
     </row>
@@ -1436,12 +1436,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Your task is to identify what counts as one portion of a dairy product. Select all the items that represent a standard dairy portion.</t>
+          <t xml:space="preserve">Your task is to slice what counts as one portion of a dairy product. </t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Uw taak is om te identificeren wat telt als een deel van een zuivelproduct. Selecteer alle items die een standaard zuivelgedeelte vertegenwoordigen.</t>
+          <t>Het is jouw taak om in stukken te snijden wat telt als één portie van een zuivelproduct.</t>
         </is>
       </c>
     </row>
@@ -1576,12 +1576,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Your task is to slice only the key nutrient found in dairy products. Note that: Ca: calcium, Fe: Iron.</t>
+          <t>Your task is to slice the key nutrient found in dairy products! Note that: Ca: calcium, Fe: Iron, vE: vitamin E.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Uw taak is om alleen de belangrijkste voedingsstof in zuivelproducten te snijden. Merk op dat: CA: Calcium, Fe: Iron.</t>
+          <t>Jouw taak is om de belangrijkste voedingsstof in zuivelproducten te snijden! Let op: Ca: calcium, Fe: ijzer, vE: vitamine E.</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dairy products are one of the best sources of calcium (Ca), which helps build strong bones and teeth.</t>
+          <t>Dairy products are one of the best sources of calcium , which helps build strong bones and teeth.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Zuivelproducten zijn een van de beste bronnen van calcium (CA), die helpt bij het bouwen van sterke botten en tanden.</t>
+          <t>Zuivelproducten zijn een van de beste bronnen van calcium, wat helpt bij de opbouw van sterke botten en tanden.</t>
         </is>
       </c>
     </row>
